--- a/Python/resultados/HW_C016_120.xlsx
+++ b/Python/resultados/HW_C016_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.796875</v>
+        <v>27.80235843975257</v>
       </c>
       <c r="C2" t="n">
-        <v>30.078125</v>
+        <v>30.08023247722995</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.84375</v>
+        <v>27.84526899161106</v>
       </c>
       <c r="C3" t="n">
-        <v>30.09375</v>
+        <v>30.09481007481382</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8125</v>
+        <v>27.81797992354754</v>
       </c>
       <c r="C4" t="n">
-        <v>30.09375</v>
+        <v>30.09434967994184</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.828125</v>
+        <v>27.82290678197702</v>
       </c>
       <c r="C5" t="n">
-        <v>30.09375</v>
+        <v>30.08852874083704</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8125</v>
+        <v>27.81343603938643</v>
       </c>
       <c r="C6" t="n">
-        <v>30.09375</v>
+        <v>30.09827504513417</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.828125</v>
+        <v>27.82527888409643</v>
       </c>
       <c r="C7" t="n">
-        <v>30.09375</v>
+        <v>30.09968142856989</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8125</v>
+        <v>27.81139993429294</v>
       </c>
       <c r="C8" t="n">
-        <v>30.078125</v>
+        <v>30.08512053339445</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8125</v>
+        <v>27.80757204591135</v>
       </c>
       <c r="C9" t="n">
-        <v>30.09375</v>
+        <v>30.08638560087784</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.859375</v>
+        <v>27.85891761061971</v>
       </c>
       <c r="C10" t="n">
-        <v>30.125</v>
+        <v>30.12175982841377</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.78125</v>
+        <v>27.78739978112536</v>
       </c>
       <c r="C11" t="n">
-        <v>30.078125</v>
+        <v>30.07130906341056</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.8125</v>
+        <v>27.81925184323204</v>
       </c>
       <c r="C12" t="n">
-        <v>30.09375</v>
+        <v>30.09204524726233</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.765625</v>
+        <v>19.76259059450875</v>
       </c>
       <c r="C2" t="n">
-        <v>26.46875</v>
+        <v>26.46205091117629</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.71875</v>
+        <v>19.72653186943145</v>
       </c>
       <c r="C3" t="n">
-        <v>26.5</v>
+        <v>26.49740113483317</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.734375</v>
+        <v>19.73922447521184</v>
       </c>
       <c r="C4" t="n">
-        <v>26.5</v>
+        <v>26.49283122699845</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.734375</v>
+        <v>19.734632245899</v>
       </c>
       <c r="C5" t="n">
-        <v>26.46875</v>
+        <v>26.4747809489479</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.734375</v>
+        <v>19.73500410834658</v>
       </c>
       <c r="C6" t="n">
-        <v>26.484375</v>
+        <v>26.48748043226867</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.75</v>
+        <v>19.75227152963232</v>
       </c>
       <c r="C7" t="n">
-        <v>26.484375</v>
+        <v>26.48106842000163</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.75</v>
+        <v>19.74549604676852</v>
       </c>
       <c r="C8" t="n">
-        <v>26.484375</v>
+        <v>26.48745651417626</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.734375</v>
+        <v>19.73165605984333</v>
       </c>
       <c r="C9" t="n">
-        <v>26.484375</v>
+        <v>26.48236437996426</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.734375</v>
+        <v>19.73966720961584</v>
       </c>
       <c r="C10" t="n">
-        <v>26.53125</v>
+        <v>26.52882112959994</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.75</v>
+        <v>19.74509029740211</v>
       </c>
       <c r="C11" t="n">
-        <v>26.5</v>
+        <v>26.50559768232268</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.734375</v>
+        <v>19.74121644366597</v>
       </c>
       <c r="C12" t="n">
-        <v>26.484375</v>
+        <v>26.48998527802893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.80041056161648</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.33534017853955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.79375654584836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.33436801443766</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.78789335695933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.29837443538272</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.79715515651936</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.36288016426221</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.79541971734821</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.281727562337</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.78248594624705</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.30261495800624</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.7724845914075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.30132892711007</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.77873068294177</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.29598751135684</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.79168311475186</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.32543175175758</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.78027577375493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.29265490057226</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.78802954473948</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.31307084037621</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C016_120.xlsx
+++ b/Python/resultados/HW_C016_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.80235843975257</v>
+        <v>27.74812892313493</v>
       </c>
       <c r="C2" t="n">
-        <v>30.08023247722995</v>
+        <v>29.66486156874257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.84526899161106</v>
+        <v>27.75698092535827</v>
       </c>
       <c r="C3" t="n">
-        <v>30.09481007481382</v>
+        <v>29.65080522938081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.81797992354754</v>
+        <v>27.77940329728607</v>
       </c>
       <c r="C4" t="n">
-        <v>30.09434967994184</v>
+        <v>29.67237505860282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.82290678197702</v>
+        <v>27.76010084592922</v>
       </c>
       <c r="C5" t="n">
-        <v>30.08852874083704</v>
+        <v>29.67068022056172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.81343603938643</v>
+        <v>27.78125461783738</v>
       </c>
       <c r="C6" t="n">
-        <v>30.09827504513417</v>
+        <v>29.67844141706296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.82527888409643</v>
+        <v>27.76238316518699</v>
       </c>
       <c r="C7" t="n">
-        <v>30.09968142856989</v>
+        <v>29.68382041937317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.81139993429294</v>
+        <v>27.77356551444721</v>
       </c>
       <c r="C8" t="n">
-        <v>30.08512053339445</v>
+        <v>29.64570177656125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.80757204591135</v>
+        <v>27.78067889727183</v>
       </c>
       <c r="C9" t="n">
-        <v>30.08638560087784</v>
+        <v>29.67942536583637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.85891761061971</v>
+        <v>27.7931705289115</v>
       </c>
       <c r="C10" t="n">
-        <v>30.12175982841377</v>
+        <v>29.69683099216793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.78739978112536</v>
+        <v>27.79610936803971</v>
       </c>
       <c r="C11" t="n">
-        <v>30.07130906341056</v>
+        <v>29.68008838992794</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.81925184323204</v>
+        <v>27.77317760834031</v>
       </c>
       <c r="C12" t="n">
-        <v>30.09204524726233</v>
+        <v>29.67230304382175</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.76259059450875</v>
+        <v>19.71749016998847</v>
       </c>
       <c r="C2" t="n">
-        <v>26.46205091117629</v>
+        <v>26.44959565633147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.72653186943145</v>
+        <v>19.73032195981172</v>
       </c>
       <c r="C3" t="n">
-        <v>26.49740113483317</v>
+        <v>26.42777620902709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.73922447521184</v>
+        <v>19.70291114544299</v>
       </c>
       <c r="C4" t="n">
-        <v>26.49283122699845</v>
+        <v>26.41437967370847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.734632245899</v>
+        <v>19.71614988475168</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4747809489479</v>
+        <v>26.41804150610024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.73500410834658</v>
+        <v>19.70993381839491</v>
       </c>
       <c r="C6" t="n">
-        <v>26.48748043226867</v>
+        <v>26.43177649193372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.75227152963232</v>
+        <v>19.71819884433467</v>
       </c>
       <c r="C7" t="n">
-        <v>26.48106842000163</v>
+        <v>26.44762132471604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.74549604676852</v>
+        <v>19.71493673140955</v>
       </c>
       <c r="C8" t="n">
-        <v>26.48745651417626</v>
+        <v>26.42083312970303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.73165605984333</v>
+        <v>19.7038778279932</v>
       </c>
       <c r="C9" t="n">
-        <v>26.48236437996426</v>
+        <v>26.42111397386038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.73966720961584</v>
+        <v>19.73886991892218</v>
       </c>
       <c r="C10" t="n">
-        <v>26.52882112959994</v>
+        <v>26.44026110164843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.74509029740211</v>
+        <v>19.72285312578322</v>
       </c>
       <c r="C11" t="n">
-        <v>26.50559768232268</v>
+        <v>26.45735935492105</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.74121644366597</v>
+        <v>19.71755434268326</v>
       </c>
       <c r="C12" t="n">
-        <v>26.48998527802893</v>
+        <v>26.43287584219499</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.80041056161648</v>
+        <v>14.66408655001434</v>
       </c>
       <c r="C2" t="n">
-        <v>21.33534017853955</v>
+        <v>21.16540901400988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.79375654584836</v>
+        <v>14.65992773565036</v>
       </c>
       <c r="C3" t="n">
-        <v>21.33436801443766</v>
+        <v>21.18259530504783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.78789335695933</v>
+        <v>14.66482750758352</v>
       </c>
       <c r="C4" t="n">
-        <v>21.29837443538272</v>
+        <v>21.21897729071021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.79715515651936</v>
+        <v>14.66651342633821</v>
       </c>
       <c r="C5" t="n">
-        <v>21.36288016426221</v>
+        <v>21.12655249795798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.79541971734821</v>
+        <v>14.66991808155307</v>
       </c>
       <c r="C6" t="n">
-        <v>21.281727562337</v>
+        <v>21.20434807015733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.78248594624705</v>
+        <v>14.67048354894018</v>
       </c>
       <c r="C7" t="n">
-        <v>21.30261495800624</v>
+        <v>21.20663313012475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7724845914075</v>
+        <v>14.68349634033455</v>
       </c>
       <c r="C8" t="n">
-        <v>21.30132892711007</v>
+        <v>21.20498154390098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.77873068294177</v>
+        <v>14.68181423843806</v>
       </c>
       <c r="C9" t="n">
-        <v>21.29598751135684</v>
+        <v>21.13653338148296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.79168311475186</v>
+        <v>14.65812643244132</v>
       </c>
       <c r="C10" t="n">
-        <v>21.32543175175758</v>
+        <v>21.19586775471614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.78027577375493</v>
+        <v>14.67150906180261</v>
       </c>
       <c r="C11" t="n">
-        <v>21.29265490057226</v>
+        <v>21.18548318772741</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.78802954473948</v>
+        <v>14.66907029230962</v>
       </c>
       <c r="C12" t="n">
-        <v>21.31307084037621</v>
+        <v>21.18273811758355</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C016_120.xlsx
+++ b/Python/resultados/HW_C016_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>29.66486156874257</v>
       </c>
+      <c r="D2" t="n">
+        <v>29.52880121126942</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>29.65080522938081</v>
       </c>
+      <c r="D3" t="n">
+        <v>29.52393724908993</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>29.67237505860282</v>
       </c>
+      <c r="D4" t="n">
+        <v>29.54781602914492</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>29.67068022056172</v>
       </c>
+      <c r="D5" t="n">
+        <v>29.54441219101832</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>29.67844141706296</v>
       </c>
+      <c r="D6" t="n">
+        <v>29.54466198796314</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>29.68382041937317</v>
       </c>
+      <c r="D7" t="n">
+        <v>29.55498198822539</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>29.64570177656125</v>
       </c>
+      <c r="D8" t="n">
+        <v>29.52556835993372</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>29.67942536583637</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.53580493683017</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>29.69683099216793</v>
       </c>
+      <c r="D10" t="n">
+        <v>29.57538767673162</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>29.68008838992794</v>
       </c>
+      <c r="D11" t="n">
+        <v>29.54193575016211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>29.67230304382175</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.54233073803687</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>26.44959565633147</v>
       </c>
+      <c r="D2" t="n">
+        <v>25.74224453730663</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>26.42777620902709</v>
       </c>
+      <c r="D3" t="n">
+        <v>25.70560543274316</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>26.41437967370847</v>
       </c>
+      <c r="D4" t="n">
+        <v>25.69281670793693</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>26.41804150610024</v>
       </c>
+      <c r="D5" t="n">
+        <v>25.73396797098459</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>26.43177649193372</v>
       </c>
+      <c r="D6" t="n">
+        <v>25.72242078872828</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>26.44762132471604</v>
       </c>
+      <c r="D7" t="n">
+        <v>25.73072359734936</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>26.42083312970303</v>
       </c>
+      <c r="D8" t="n">
+        <v>25.72365194794936</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>26.42111397386038</v>
       </c>
+      <c r="D9" t="n">
+        <v>25.7042081251479</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>26.44026110164843</v>
       </c>
+      <c r="D10" t="n">
+        <v>25.71458823465747</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>26.45735935492105</v>
       </c>
+      <c r="D11" t="n">
+        <v>25.74139959958241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>26.43287584219499</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.72116269423861</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>21.16540901400988</v>
       </c>
+      <c r="D2" t="n">
+        <v>19.7508146210884</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>21.18259530504783</v>
       </c>
+      <c r="D3" t="n">
+        <v>19.76536240898567</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>21.21897729071021</v>
       </c>
+      <c r="D4" t="n">
+        <v>19.8054869827637</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>21.12655249795798</v>
       </c>
+      <c r="D5" t="n">
+        <v>19.7112642730274</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>21.20434807015733</v>
       </c>
+      <c r="D6" t="n">
+        <v>19.77403924731863</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>21.20663313012475</v>
       </c>
+      <c r="D7" t="n">
+        <v>19.78412877070525</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>21.20498154390098</v>
       </c>
+      <c r="D8" t="n">
+        <v>19.77765431427203</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>21.13653338148296</v>
       </c>
+      <c r="D9" t="n">
+        <v>19.7248934968242</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>21.19586775471614</v>
       </c>
+      <c r="D10" t="n">
+        <v>19.78339192412444</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>21.18548318772741</v>
       </c>
+      <c r="D11" t="n">
+        <v>19.76224921283356</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>21.18273811758355</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.76392852519433</v>
       </c>
     </row>
   </sheetData>
